--- a/biology/Botanique/Festuca_idahoensis/Festuca_idahoensis.xlsx
+++ b/biology/Botanique/Festuca_idahoensis/Festuca_idahoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Festuca idahoensis ou fétuque d'Idaho est une espèce d'herbe de la famille des Poaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Festuca idahoensis est présente dans la partie occidentale de l'Amérique du Nord. Elle supporte de nombreux types de milieux qu'il s'agisse de près ou de zones recouvertes de forêts.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante vivace en touffe qui peut atteindre 30 à 80 centimètres de hauteur[2].Ses feuilles, courtes et enroulées, sont situées à la base de la plante. Les inflorescences sont formées d'épillets mesurant chacun quelques millimètres. La plante se reproduit par semences et par tallage.
-L'herbe est adaptée pour l'élevage du bétail[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante vivace en touffe qui peut atteindre 30 à 80 centimètres de hauteur.Ses feuilles, courtes et enroulées, sont situées à la base de la plante. Les inflorescences sont formées d'épillets mesurant chacun quelques millimètres. La plante se reproduit par semences et par tallage.
+L'herbe est adaptée pour l'élevage du bétail.
 </t>
         </is>
       </c>
